--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1861.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1861.xlsx
@@ -357,7 +357,7 @@
         <v>1.135407057556185</v>
       </c>
       <c r="D1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E1">
         <v>2.429175120602027</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1861.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1861.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.2043961539408728</v>
+        <v>1.540118098258972</v>
       </c>
       <c r="B1">
-        <v>0.3315078410713598</v>
+        <v>2.774966955184937</v>
       </c>
       <c r="C1">
-        <v>1.135407057556185</v>
+        <v>3.074009656906128</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3.006079912185669</v>
       </c>
       <c r="E1">
-        <v>2.429175120602027</v>
+        <v>2.569772720336914</v>
       </c>
     </row>
   </sheetData>
